--- a/SimpleExcel.xlsx
+++ b/SimpleExcel.xlsx
@@ -16,12 +16,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="4">
   <si>
     <t>Sl No</t>
   </si>
   <si>
     <t>Title</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
   </si>
 </sst>
 </file>
@@ -80,9 +86,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -393,138 +398,178 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1"/>
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1"/>
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="1"/>
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="1"/>
+      <c r="B6" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="1"/>
+      <c r="B7" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="1"/>
+      <c r="B8" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="1"/>
+      <c r="B9" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="1"/>
+      <c r="B10" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="1"/>
+      <c r="B11" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="1"/>
+      <c r="B12" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="1"/>
+      <c r="B13" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="1"/>
+      <c r="B14" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="1"/>
+      <c r="B15" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="1"/>
+      <c r="B16" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="1"/>
+      <c r="B17" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+      <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="1"/>
+      <c r="B18" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+      <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="1"/>
+      <c r="B19" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+      <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="1"/>
+      <c r="B20" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+      <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="1"/>
+      <c r="B21" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SimpleExcel.xlsx
+++ b/SimpleExcel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="5">
   <si>
     <t>Sl No</t>
   </si>
@@ -28,6 +28,9 @@
   </si>
   <si>
     <t>B</t>
+  </si>
+  <si>
+    <t>Test</t>
   </si>
 </sst>
 </file>
@@ -395,179 +398,242 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>3</v>
       </c>
     </row>

--- a/SimpleExcel.xlsx
+++ b/SimpleExcel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="6">
   <si>
     <t>Sl No</t>
   </si>
@@ -31,6 +31,9 @@
   </si>
   <si>
     <t>Test</t>
+  </si>
+  <si>
+    <t>First Banch</t>
   </si>
 </sst>
 </file>
@@ -89,7 +92,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -97,6 +100,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,15 +405,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -416,8 +424,11 @@
       <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -427,8 +438,9 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -438,8 +450,9 @@
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -449,8 +462,9 @@
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -460,8 +474,9 @@
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -471,8 +486,9 @@
       <c r="C6" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -482,8 +498,9 @@
       <c r="C7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -493,8 +510,9 @@
       <c r="C8" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -504,8 +522,9 @@
       <c r="C9" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -515,8 +534,9 @@
       <c r="C10" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -526,8 +546,9 @@
       <c r="C11" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -537,8 +558,9 @@
       <c r="C12" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -548,8 +570,9 @@
       <c r="C13" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -559,8 +582,9 @@
       <c r="C14" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -570,8 +594,9 @@
       <c r="C15" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -581,8 +606,9 @@
       <c r="C16" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -592,8 +618,9 @@
       <c r="C17" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -603,8 +630,9 @@
       <c r="C18" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -614,8 +642,9 @@
       <c r="C19" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -625,8 +654,9 @@
       <c r="C20" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -636,6 +666,7 @@
       <c r="C21" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="D21" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SimpleExcel.xlsx
+++ b/SimpleExcel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="6">
   <si>
     <t>Sl No</t>
   </si>
@@ -31,6 +31,9 @@
   </si>
   <si>
     <t>Test</t>
+  </si>
+  <si>
+    <t>Main Branch</t>
   </si>
 </sst>
 </file>
@@ -89,7 +92,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -97,6 +100,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,15 +405,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E1" sqref="E1:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -416,8 +426,11 @@
       <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -427,8 +440,9 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -438,8 +452,9 @@
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -449,8 +464,9 @@
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -460,8 +476,9 @@
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -471,8 +488,9 @@
       <c r="C6" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -482,8 +500,9 @@
       <c r="C7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -493,8 +512,9 @@
       <c r="C8" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -504,8 +524,9 @@
       <c r="C9" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -515,8 +536,9 @@
       <c r="C10" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -526,8 +548,9 @@
       <c r="C11" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -537,8 +560,9 @@
       <c r="C12" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -548,8 +572,9 @@
       <c r="C13" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -559,8 +584,9 @@
       <c r="C14" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -570,8 +596,9 @@
       <c r="C15" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -581,8 +608,9 @@
       <c r="C16" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -592,8 +620,9 @@
       <c r="C17" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -603,8 +632,9 @@
       <c r="C18" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -614,8 +644,9 @@
       <c r="C19" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -625,8 +656,9 @@
       <c r="C20" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -636,6 +668,7 @@
       <c r="C21" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E21" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SimpleExcel.xlsx
+++ b/SimpleExcel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="5">
   <si>
     <t>Sl No</t>
   </si>
@@ -31,9 +31,6 @@
   </si>
   <si>
     <t>Test</t>
-  </si>
-  <si>
-    <t>First Banch</t>
   </si>
 </sst>
 </file>
@@ -92,7 +89,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -100,10 +97,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -405,16 +398,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -424,11 +416,8 @@
       <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -438,9 +427,8 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -450,9 +438,8 @@
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -462,9 +449,8 @@
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="4"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -474,9 +460,8 @@
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="4"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -486,9 +471,8 @@
       <c r="C6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -498,9 +482,8 @@
       <c r="C7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -510,9 +493,8 @@
       <c r="C8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -522,9 +504,8 @@
       <c r="C9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -534,9 +515,8 @@
       <c r="C10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -546,9 +526,8 @@
       <c r="C11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -558,9 +537,8 @@
       <c r="C12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -570,9 +548,8 @@
       <c r="C13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -582,9 +559,8 @@
       <c r="C14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -594,9 +570,8 @@
       <c r="C15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -606,9 +581,8 @@
       <c r="C16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -618,9 +592,8 @@
       <c r="C17" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -630,9 +603,8 @@
       <c r="C18" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -642,9 +614,8 @@
       <c r="C19" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -654,9 +625,8 @@
       <c r="C20" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -666,7 +636,6 @@
       <c r="C21" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SimpleExcel.xlsx
+++ b/SimpleExcel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="7">
   <si>
     <t>Sl No</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>Main Branch</t>
+  </si>
+  <si>
+    <t>2nd Branch</t>
   </si>
 </sst>
 </file>
@@ -408,12 +411,12 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E21"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -426,6 +429,9 @@
       <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
@@ -440,6 +446,7 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="D2" s="4"/>
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -452,6 +459,7 @@
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -464,6 +472,7 @@
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="D4" s="4"/>
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -476,6 +485,7 @@
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="D5" s="4"/>
       <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -488,6 +498,7 @@
       <c r="C6" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="D6" s="4"/>
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -500,6 +511,7 @@
       <c r="C7" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="D7" s="4"/>
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -512,6 +524,7 @@
       <c r="C8" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="D8" s="4"/>
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -524,6 +537,7 @@
       <c r="C9" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -536,6 +550,7 @@
       <c r="C10" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -548,6 +563,7 @@
       <c r="C11" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="D11" s="4"/>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -560,6 +576,7 @@
       <c r="C12" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="D12" s="4"/>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -572,6 +589,7 @@
       <c r="C13" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -584,6 +602,7 @@
       <c r="C14" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="D14" s="4"/>
       <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -596,6 +615,7 @@
       <c r="C15" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -608,6 +628,7 @@
       <c r="C16" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="D16" s="4"/>
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -620,6 +641,7 @@
       <c r="C17" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="D17" s="4"/>
       <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -632,6 +654,7 @@
       <c r="C18" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="D18" s="4"/>
       <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -644,6 +667,7 @@
       <c r="C19" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="D19" s="4"/>
       <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -656,6 +680,7 @@
       <c r="C20" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="D20" s="4"/>
       <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -668,6 +693,7 @@
       <c r="C21" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="D21" s="4"/>
       <c r="E21" s="4"/>
     </row>
   </sheetData>

--- a/SimpleExcel.xlsx
+++ b/SimpleExcel.xlsx
@@ -95,7 +95,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -106,7 +106,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -411,7 +410,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,8 +445,10 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
@@ -459,8 +460,8 @@
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
@@ -472,8 +473,8 @@
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -485,8 +486,8 @@
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
@@ -498,8 +499,8 @@
       <c r="C6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
@@ -511,8 +512,8 @@
       <c r="C7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
@@ -524,8 +525,8 @@
       <c r="C8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -537,8 +538,8 @@
       <c r="C9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -550,8 +551,8 @@
       <c r="C10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -563,8 +564,8 @@
       <c r="C11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
@@ -576,8 +577,8 @@
       <c r="C12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
@@ -589,8 +590,8 @@
       <c r="C13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
@@ -602,8 +603,8 @@
       <c r="C14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -615,8 +616,8 @@
       <c r="C15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
@@ -628,8 +629,8 @@
       <c r="C16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
@@ -641,8 +642,8 @@
       <c r="C17" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
@@ -654,8 +655,8 @@
       <c r="C18" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
@@ -667,8 +668,8 @@
       <c r="C19" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
@@ -680,8 +681,8 @@
       <c r="C20" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -693,8 +694,8 @@
       <c r="C21" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
